--- a/dados/campo.xlsx
+++ b/dados/campo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/61b286e7b92e5b7e/Documentos/autopesquisa-voluntariado-relatorio-2025/dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="8_{8A5172FB-C0B0-4006-98C6-657EE8888159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{327D5BCE-C719-405C-8C98-B3C59374E6CF}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="8_{8A5172FB-C0B0-4006-98C6-657EE8888159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A5F9ABD-AE31-4E97-BCAE-7BC55E0BE6FF}"/>
   <bookViews>
-    <workbookView xWindow="26340" yWindow="-17310" windowWidth="22125" windowHeight="15705" xr2:uid="{AC4C0C87-8EBC-4A9A-854E-A9E8FBDB93AB}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="11472" xr2:uid="{AC4C0C87-8EBC-4A9A-854E-A9E8FBDB93AB}"/>
   </bookViews>
   <sheets>
     <sheet name="campo" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>Data</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>Curitiba</t>
+  </si>
+  <si>
+    <t>Alessandra Nascimento, André Monteiro</t>
   </si>
 </sst>
 </file>
@@ -992,8 +995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109C4AEE-95BD-42B9-8E31-20A11B99980C}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1121,7 +1124,7 @@
         <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
